--- a/Data_update/config_project/Data_update/data_source_priority_config.xlsx
+++ b/Data_update/config_project/Data_update/data_source_priority_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Data_update\config_project\Data_update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2088E9-EF96-4E74-B957-90BAA94A1902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D735E9A-A66A-4544-BC6C-9F918E720C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="1710" windowWidth="57600" windowHeight="17925" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="1" r:id="rId1"/>
@@ -384,18 +384,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -411,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -427,15 +428,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4491EB2-8CEB-46C0-B0A7-4E303AB1E945}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -451,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -459,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -475,18 +477,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -502,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -518,15 +521,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -558,15 +562,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,20 +579,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -598,18 +603,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -625,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -633,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -649,15 +655,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -673,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -689,15 +696,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -713,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -729,18 +737,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -764,15 +773,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033FA00-CE70-4D4C-A27B-8D559EA8093C}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>

--- a/Data_update/config_project/Data_update/data_source_priority_config.xlsx
+++ b/Data_update/config_project/Data_update/data_source_priority_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Data_update\config_project\Data_update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new2\Data_update\config_project\Data_update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D735E9A-A66A-4544-BC6C-9F918E720C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1842CB20-0065-4CBD-9F6B-C4E02C497EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="1" r:id="rId1"/>
@@ -387,16 +387,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,20 +404,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -435,9 +435,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,12 +484,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -528,9 +528,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -565,13 +565,13 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -610,12 +610,12 @@
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -662,9 +662,9 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -703,9 +703,9 @@
       <selection activeCell="H17" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -721,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,12 +744,12 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -780,9 +780,9 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
